--- a/sputnik/personal/ee/85ee.xlsx
+++ b/sputnik/personal/ee/85ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -37,16 +31,34 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>Итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +132,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -136,15 +145,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -205,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,10 +247,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,7 +281,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -448,338 +456,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43219</v>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10">
+        <v>43409</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>12421</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="3">
+        <v>13230</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43274</v>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10">
+        <v>43635</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>12625</v>
+        <v>13430</v>
       </c>
       <c r="D3" s="3">
-        <f>C3-C2</f>
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>875.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43309</v>
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F8" si="0">D3*E3</f>
+        <v>914</v>
+      </c>
+      <c r="G3" s="12">
+        <v>914</v>
+      </c>
+      <c r="H3" s="12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10">
+        <v>43667</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>12832</v>
+        <v>13630</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C3</f>
-        <v>207</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>931.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43366</v>
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>898</v>
+      </c>
+      <c r="G4" s="12">
+        <v>898</v>
+      </c>
+      <c r="H4" s="12">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11">
+        <v>43701</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>13030</v>
+        <v>13880</v>
       </c>
       <c r="D5" s="3">
         <f>C5-C4</f>
-        <v>198</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43409</v>
+        <v>250</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>1122.5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1122.5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1122.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11">
+        <v>43739</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>13230</v>
+        <v>14130</v>
       </c>
       <c r="D6" s="3">
         <f>C6-C5</f>
-        <v>200</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>43635</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>13430</v>
-      </c>
-      <c r="D8" s="3">
-        <v>200</v>
-      </c>
-      <c r="E8" s="11">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F13" si="0">D8*E8</f>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>43667</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>13630</v>
-      </c>
-      <c r="D9" s="3">
-        <v>200</v>
-      </c>
-      <c r="E9" s="11">
+        <v>250</v>
+      </c>
+      <c r="E6" s="3">
         <v>4.49</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>43701</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>13880</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C9</f>
-        <v>250</v>
-      </c>
-      <c r="E10" s="11">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>1122.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>43739</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="G6" s="12">
+        <v>1122.5</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1122.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11">
+        <v>43824</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
-        <v>14130</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C10</f>
-        <v>250</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="C7" s="3">
+        <v>14430</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C6</f>
+        <v>300</v>
+      </c>
+      <c r="E7" s="3">
         <v>4.49</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>1122.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>43824</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>14430</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C11</f>
-        <v>300</v>
-      </c>
-      <c r="E12" s="11">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>1347</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="G7" s="12">
+        <v>1347</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11">
         <v>43875</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C8" s="3">
         <v>14730</v>
       </c>
-      <c r="D13" s="3">
-        <f>C13-C12</f>
+      <c r="D8" s="3">
+        <f>C8-C7</f>
         <v>300</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E8" s="3">
         <v>4.49</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>1347</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="G8" s="12">
+        <v>1347</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12">
+        <f>SUM(G2:G8)</f>
+        <v>6751</v>
+      </c>
+      <c r="H9" s="12">
+        <f>SUM(H2:H8)</f>
+        <v>6737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <f>SUM(H9,-G9)</f>
+        <v>-14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -789,12 +729,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -803,12 +743,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/85ee.xlsx
+++ b/sputnik/personal/ee/85ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,6 +282,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -456,17 +458,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -480,7 +482,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -506,7 +508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>43409</v>
       </c>
@@ -522,7 +524,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>43635</v>
       </c>
@@ -549,7 +551,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43667</v>
       </c>
@@ -576,7 +578,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>43701</v>
       </c>
@@ -604,7 +606,7 @@
         <v>1122.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>43739</v>
       </c>
@@ -632,7 +634,7 @@
         <v>1122.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>43824</v>
       </c>
@@ -660,7 +662,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>43875</v>
       </c>
@@ -688,36 +690,64 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>43965</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>14983</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9-C8</f>
+        <v>253</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9" si="1">D9*E9</f>
+        <v>1135.97</v>
       </c>
       <c r="G9" s="12">
-        <f>SUM(G2:G8)</f>
-        <v>6751</v>
+        <v>1135.97</v>
       </c>
       <c r="H9" s="12">
-        <f>SUM(H2:H8)</f>
-        <v>6737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
+        <v>1135.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(G2:G9)</f>
+        <v>7886.97</v>
+      </c>
+      <c r="H10" s="12">
+        <f>SUM(H2:H9)</f>
+        <v>7872.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
-        <f>SUM(H9,-G9)</f>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
+        <f>SUM(H10,-G10)</f>
         <v>-14</v>
       </c>
     </row>
@@ -729,12 +759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,12 +773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/85ee.xlsx
+++ b/sputnik/personal/ee/85ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -462,10 +462,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -719,36 +719,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
+      <c r="A10" s="11">
+        <v>44011</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>15280</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C9</f>
+        <v>297</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10" si="2">D10*E10</f>
+        <v>1333.53</v>
       </c>
       <c r="G10" s="12">
-        <f>SUM(G2:G9)</f>
-        <v>7886.97</v>
+        <v>1333.53</v>
       </c>
       <c r="H10" s="12">
-        <f>SUM(H2:H9)</f>
-        <v>7872.97</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12">
+        <f>SUM(G2:G10)</f>
+        <v>9220.5</v>
+      </c>
+      <c r="H11" s="12">
+        <f>SUM(H2:H10)</f>
+        <v>9219.9700000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
-        <f>SUM(H10,-G10)</f>
-        <v>-14</v>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12">
+        <f>SUM(H11,-G11)</f>
+        <v>-0.52999999999883585</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/85ee.xlsx
+++ b/sputnik/personal/ee/85ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -462,10 +462,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
         <v>13880</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C4</f>
+        <f t="shared" ref="D5:D11" si="1">C5-C4</f>
         <v>250</v>
       </c>
       <c r="E5" s="3">
@@ -617,7 +617,7 @@
         <v>14130</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C5</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="E6" s="3">
@@ -645,7 +645,7 @@
         <v>14430</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C6</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="E7" s="3">
@@ -673,7 +673,7 @@
         <v>14730</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C7</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="E8" s="3">
@@ -701,14 +701,14 @@
         <v>14983</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C8</f>
+        <f t="shared" si="1"/>
         <v>253</v>
       </c>
       <c r="E9" s="3">
         <v>4.49</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ref="F9" si="1">D9*E9</f>
+        <f t="shared" ref="F9" si="2">D9*E9</f>
         <v>1135.97</v>
       </c>
       <c r="G9" s="12">
@@ -729,14 +729,14 @@
         <v>15280</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C9</f>
+        <f t="shared" si="1"/>
         <v>297</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ref="F10" si="2">D10*E10</f>
+        <f t="shared" ref="F10" si="3">D10*E10</f>
         <v>1333.53</v>
       </c>
       <c r="G10" s="12">
@@ -747,35 +747,63 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
+      <c r="A11" s="11">
+        <v>44061</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>15530</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11" si="4">D11*E11</f>
+        <v>1177.5</v>
       </c>
       <c r="G11" s="12">
-        <f>SUM(G2:G10)</f>
-        <v>9220.5</v>
+        <v>1177.5</v>
       </c>
       <c r="H11" s="12">
-        <f>SUM(H2:H10)</f>
-        <v>9219.9700000000012</v>
+        <v>1177.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(G2:G11)</f>
+        <v>10398</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUM(H2:H11)</f>
+        <v>10397.470000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12">
-        <f>SUM(H11,-G11)</f>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12">
+        <f>SUM(H12,-G12)</f>
         <v>-0.52999999999883585</v>
       </c>
     </row>

--- a/sputnik/personal/ee/85ee.xlsx
+++ b/sputnik/personal/ee/85ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -462,10 +462,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -775,36 +775,64 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
+      <c r="A12" s="11">
+        <v>44141</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>15646</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12" si="5">C12-C11</f>
+        <v>116</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12" si="6">D12*E12</f>
+        <v>546.36</v>
       </c>
       <c r="G12" s="12">
-        <f>SUM(G2:G11)</f>
-        <v>10398</v>
+        <v>546.36</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(H2:H11)</f>
-        <v>10397.470000000001</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="12">
+        <f>SUM(G2:G12)</f>
+        <v>10944.36</v>
+      </c>
+      <c r="H13" s="12">
+        <f>SUM(H2:H12)</f>
+        <v>10943.470000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12">
-        <f>SUM(H12,-G12)</f>
-        <v>-0.52999999999883585</v>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12">
+        <f>SUM(H13,-G13)</f>
+        <v>-0.88999999999941792</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/85ee.xlsx
+++ b/sputnik/personal/ee/85ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -462,10 +462,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -803,35 +803,63 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
+      <c r="A13" s="11">
+        <v>44244</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>15846</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="7">C13-C12</f>
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" ref="F13" si="8">D13*E13</f>
+        <v>942</v>
       </c>
       <c r="G13" s="12">
-        <f>SUM(G2:G12)</f>
-        <v>10944.36</v>
+        <v>942</v>
       </c>
       <c r="H13" s="12">
-        <f>SUM(H2:H12)</f>
-        <v>10943.470000000001</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G2:G13)</f>
+        <v>11886.36</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H2:H13)</f>
+        <v>11885.470000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12">
-        <f>SUM(H13,-G13)</f>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
+        <f>SUM(H14,-G14)</f>
         <v>-0.88999999999941792</v>
       </c>
     </row>

--- a/sputnik/personal/ee/85ee.xlsx
+++ b/sputnik/personal/ee/85ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -462,10 +462,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -831,35 +831,63 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
+      <c r="A14" s="11">
+        <v>44371</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>15979</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14" si="9">C14-C13</f>
+        <v>133</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14" si="10">D14*E14</f>
+        <v>626.42999999999995</v>
       </c>
       <c r="G14" s="12">
-        <f>SUM(G2:G13)</f>
-        <v>11886.36</v>
+        <v>626.42999999999995</v>
       </c>
       <c r="H14" s="12">
-        <f>SUM(H2:H13)</f>
-        <v>11885.470000000001</v>
+        <v>626.42999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="12">
+        <f>SUM(G2:G14)</f>
+        <v>12512.79</v>
+      </c>
+      <c r="H15" s="12">
+        <f>SUM(H2:H14)</f>
+        <v>12511.900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
-        <f>SUM(H14,-G14)</f>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
+        <f>SUM(H15,-G15)</f>
         <v>-0.88999999999941792</v>
       </c>
     </row>
